--- a/mypath/wpdata.xlsx
+++ b/mypath/wpdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcrow\Documents\Src\Python\reddit\mypath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53021D91-6DD5-4FC4-8B46-28088A978E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39177FBA-CC14-4981-90A0-56D600433F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3750" yWindow="2985" windowWidth="22530" windowHeight="12030" activeTab="1" xr2:uid="{5CCEA295-BAD0-4375-AB05-36B06B2637AB}"/>
   </bookViews>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Biditem</t>
   </si>
   <si>
-    <t>Bid_Desc</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -49,12 +46,6 @@
     <t>MH</t>
   </si>
   <si>
-    <t>Total_Labor</t>
-  </si>
-  <si>
-    <t>Bid</t>
-  </si>
-  <si>
     <t>111Description</t>
   </si>
   <si>
@@ -73,19 +64,31 @@
     <t>111Descriptionxxx</t>
   </si>
   <si>
-    <t>Bid_11111</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Actv_Desc</t>
-  </si>
-  <si>
-    <t>Unit_Cost</t>
-  </si>
-  <si>
     <t>PcsWste</t>
+  </si>
+  <si>
+    <t>Bid Desc</t>
+  </si>
+  <si>
+    <t>Actv Desc</t>
+  </si>
+  <si>
+    <t>Total Labor</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Bid 11111</t>
+  </si>
+  <si>
+    <t>Bid 21111</t>
+  </si>
+  <si>
+    <t>112Descriptionxxx</t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
 </sst>
 </file>
@@ -437,96 +440,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D21A6F-1A5A-4125-B5C6-3E0DA243B824}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>11111</v>
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="G2">
         <v>600</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2111</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>21111</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="G3">
         <v>700</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
+      <c r="H3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -536,78 +543,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34093F85-92AB-42AE-9618-5BBBCF78E289}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1111</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>56</v>
+      </c>
+      <c r="I2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>45</v>
-      </c>
-      <c r="I2">
-        <v>56</v>
-      </c>
-      <c r="J2">
-        <v>72</v>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/mypath/wpdata.xlsx
+++ b/mypath/wpdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcrow\Documents\Src\Python\reddit\mypath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39177FBA-CC14-4981-90A0-56D600433F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B97A07-33D0-4AC8-8C54-37FD9B0DD5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3750" yWindow="2985" windowWidth="22530" windowHeight="12030" activeTab="1" xr2:uid="{5CCEA295-BAD0-4375-AB05-36B06B2637AB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Biditem</t>
   </si>
@@ -58,21 +58,18 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Pcs/Wste</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t>111Descriptionxxx</t>
   </si>
   <si>
-    <t>PcsWste</t>
-  </si>
-  <si>
     <t>Bid Desc</t>
   </si>
   <si>
-    <t>Actv Desc</t>
-  </si>
-  <si>
     <t>Total Labor</t>
   </si>
   <si>
@@ -89,6 +86,12 @@
   </si>
   <si>
     <t>HR</t>
+  </si>
+  <si>
+    <t>Actv. Desc</t>
+  </si>
+  <si>
+    <t>Bid Desc.</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -489,7 +492,7 @@
         <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -515,7 +518,7 @@
         <v>2111</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -546,7 +549,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -576,13 +579,13 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -590,13 +593,13 @@
         <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -619,19 +622,19 @@
         <v>2111</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>15</v>

--- a/mypath/wpdata.xlsx
+++ b/mypath/wpdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcrow\Documents\Src\Python\reddit\mypath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B97A07-33D0-4AC8-8C54-37FD9B0DD5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C5E76E-B03A-4EE1-A2CC-FA1609CC0204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3750" yWindow="2985" windowWidth="22530" windowHeight="12030" activeTab="1" xr2:uid="{5CCEA295-BAD0-4375-AB05-36B06B2637AB}"/>
   </bookViews>
@@ -88,10 +88,10 @@
     <t>HR</t>
   </si>
   <si>
-    <t>Actv. Desc</t>
-  </si>
-  <si>
     <t>Bid Desc.</t>
+  </si>
+  <si>
+    <t>Actv Desc.</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>

--- a/mypath/wpdata.xlsx
+++ b/mypath/wpdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcrow\Documents\Src\Python\reddit\mypath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C5E76E-B03A-4EE1-A2CC-FA1609CC0204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3EC8C2-22BF-430B-AF44-CDDF767D41AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3750" yWindow="2985" windowWidth="22530" windowHeight="12030" activeTab="1" xr2:uid="{5CCEA295-BAD0-4375-AB05-36B06B2637AB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Biditem</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>111Description</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>112Description</t>
@@ -446,7 +443,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -484,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -492,25 +489,25 @@
         <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
       </c>
       <c r="G2">
         <v>600</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
+      <c r="H2">
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -518,25 +515,25 @@
         <v>2111</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
       </c>
       <c r="G3">
         <v>700</v>
       </c>
-      <c r="H3" t="s">
-        <v>7</v>
+      <c r="H3">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -564,28 +561,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,13 +590,13 @@
         <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -622,19 +619,19 @@
         <v>2111</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>15</v>
